--- a/templates/POSYDATA.xlsx
+++ b/templates/POSYDATA.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946773F4-8BA1-4848-86D5-1A7BCD5DB7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FB8B842E-64AF-416F-83F9-ED5D944AAF03}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}"/>
+    <workbookView activeTab="0" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="POReceipt" sheetId="1" r:id="rId1"/>
-    <sheet name="POAuthorization" sheetId="2" r:id="rId2"/>
-    <sheet name="POIssue" sheetId="3" r:id="rId3"/>
-    <sheet name="POIssueReversal" sheetId="4" r:id="rId4"/>
-    <sheet name="POReceiptReversal" sheetId="5" r:id="rId5"/>
+    <sheet name="POReceipt" r:id="rId1" sheetId="1"/>
+    <sheet name="Afterquantity" r:id="rId2" sheetId="10"/>
+    <sheet name="POAuthorization" r:id="rId3" sheetId="2"/>
+    <sheet name="POIssue" r:id="rId4" sheetId="3"/>
+    <sheet name="POIssueReversal" r:id="rId5" sheetId="4"/>
+    <sheet name="POReceiptReversal" r:id="rId6" sheetId="5"/>
+    <sheet name="POClose" r:id="rId7" sheetId="6"/>
+    <sheet name="POCloseReversal" r:id="rId8" sheetId="7"/>
+    <sheet name="AllocatePOComponent" r:id="rId9" sheetId="8"/>
+    <sheet name="DeAllocatePOComponent" r:id="rId10" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>Process</t>
   </si>
@@ -125,19 +130,100 @@
   </si>
   <si>
     <t>PO Receipt Reversal</t>
+  </si>
+  <si>
+    <t>PO Close</t>
+  </si>
+  <si>
+    <t>NP Automation</t>
+  </si>
+  <si>
+    <t>PO Close Reversal</t>
+  </si>
+  <si>
+    <t>Allocate PO Components</t>
+  </si>
+  <si>
+    <t>Deallocate PO Components</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTamUAG</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>QuantityBefore</t>
+  </si>
+  <si>
+    <t>593.0</t>
+  </si>
+  <si>
+    <t>603.0</t>
+  </si>
+  <si>
+    <t>QuantityAfter</t>
+  </si>
+  <si>
+    <t>613.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,18 +242,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,10 +286,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -222,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -274,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -385,21 +487,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -416,7 +518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -468,27 +570,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.8046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.84375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.15234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.21484375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.47265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.3828125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3828125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.7890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.19140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.27734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.51953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="25.8203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="16" max="16" width="13.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -528,8 +644,17 @@
       <c r="M1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -569,15 +694,112 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F067706-C1F0-4013-B216-2717D790FDB6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3140E94-A77F-4ADA-B38D-721536A01E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA42174B-7832-41C7-8308-BCC1F28AD09A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3140E94-A77F-4ADA-B38D-721536A01E45}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -586,9 +808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -635,21 +857,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07130A80-619A-4C08-AB25-C355965EA3FB}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07130A80-619A-4C08-AB25-C355965EA3FB}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -735,12 +957,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -796,21 +1018,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FBD9E7-0F05-4B09-A258-92FDFEAF64E9}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FBD9E7-0F05-4B09-A258-92FDFEAF64E9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,6 +1082,192 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA944A1-FC72-490D-881A-48958A944509}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884049D4-0A09-4CCF-9E87-A153BF9C3BBF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9460007-A700-4ED6-98B4-AD86377C25C9}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/POSYDATA.xlsx
+++ b/templates/POSYDATA.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>Process</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>613.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>790.0</t>
+  </si>
+  <si>
+    <t>948.0</t>
+  </si>
+  <si>
+    <t>958.0</t>
   </si>
 </sst>
 </file>
@@ -175,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +200,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -234,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -251,19 +311,39 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -601,7 +681,7 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="17.51953125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="25.8203125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
-    <col min="16" max="16" width="13.3984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -698,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/templates/POSYDATA.xlsx
+++ b/templates/POSYDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FB8B842E-64AF-416F-83F9-ED5D944AAF03}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DBF3E264-27AB-476F-BAC3-D66B28DE898D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
+    <workbookView activeTab="0" firstSheet="6" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="POReceipt" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
   <si>
     <t>Process</t>
   </si>
@@ -159,25 +159,28 @@
     <t>593.0</t>
   </si>
   <si>
-    <t>603.0</t>
-  </si>
-  <si>
     <t>QuantityAfter</t>
   </si>
   <si>
-    <t>613.0</t>
-  </si>
-  <si>
-    <t>780.0</t>
-  </si>
-  <si>
-    <t>790.0</t>
-  </si>
-  <si>
-    <t>948.0</t>
-  </si>
-  <si>
-    <t>958.0</t>
+    <t>970.0</t>
+  </si>
+  <si>
+    <t>980.0</t>
+  </si>
+  <si>
+    <t>a2S1K000001xELw</t>
+  </si>
+  <si>
+    <t>1017.0</t>
+  </si>
+  <si>
+    <t>1027.0</t>
+  </si>
+  <si>
+    <t>1066.0</t>
+  </si>
+  <si>
+    <t>1076.0</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,42 +252,6 @@
       <color indexed="10"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,20 +281,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0"/>
@@ -336,14 +294,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -658,9 +610,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -684,7 +636,7 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -731,10 +683,10 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -778,10 +730,10 @@
         <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +898,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9460007-A700-4ED6-98B4-AD86377C25C9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>4</v>
